--- a/TestData/Opencart_LoginData.xlsx
+++ b/TestData/Opencart_LoginData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationWorkspce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\myworkspaces\seleniumwebdriver\OpencartV121\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B72E52B5-A8D8-4DA7-A251-C6E2D10828AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47704AFE-A492-43CB-82D7-6A46F57DC3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
+    <workbookView xWindow="16354" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,17 +488,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -520,7 +520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -531,7 +531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -542,7 +542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -553,7 +553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -564,7 +564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
